--- a/הזמנת חדרים.xlsx
+++ b/הזמנת חדרים.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\19.8.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Prog\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C8928F-E884-48CD-B976-67C3AFF1A0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9672" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="פירוק פונקציונאלי" sheetId="3" r:id="rId1"/>
-    <sheet name="ערכי קצה וקבוצת שקילות " sheetId="4" r:id="rId2"/>
-    <sheet name="תמונה" sheetId="5" r:id="rId3"/>
+    <sheet name="ע.ק ושקילות 9.3.3.3.1  " sheetId="4" r:id="rId2"/>
+    <sheet name="קבוצת שקילות 9.3.3.4.3 " sheetId="7" r:id="rId3"/>
     <sheet name="טבלת החלטות 9.3.3.2.1" sheetId="2" r:id="rId4"/>
+    <sheet name="טבלת החלטות 9.3.3.3.4   " sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="218">
   <si>
     <t>שם דרישה</t>
   </si>
@@ -1361,25 +1361,363 @@
   <si>
     <t>Befor date 2 and after date 2 (TC5)</t>
   </si>
+  <si>
+    <t>9.3.3.3.2.1</t>
+  </si>
+  <si>
+    <t>9.3.3.3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room field is set &gt; 0 </t>
+  </si>
+  <si>
+    <t>RD will assign rooms below rooms field</t>
+  </si>
+  <si>
+    <t>9.3.3.3.2.3</t>
+  </si>
+  <si>
+    <t>RD will assign rooms equal to rooms field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD will assign rooms above rooms field </t>
+  </si>
+  <si>
+    <t>9.3.3.3.2.4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>9.3.3.3.3.1</t>
+  </si>
+  <si>
+    <t>RD assign room that already was assign</t>
+  </si>
+  <si>
+    <t>9.3.3.3.4.1</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>מספר ילדים תקין?</t>
+  </si>
+  <si>
+    <t>מספר מבוגרים תקין?</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>9.3.3.3.4.2</t>
+  </si>
+  <si>
+    <t>9.3.3.3.4.3</t>
+  </si>
+  <si>
+    <t>9.3.3.3.4.4</t>
+  </si>
+  <si>
+    <t>When number of adults valid and number of children valid</t>
+  </si>
+  <si>
+    <t>When number of adults valid and number of children invalid</t>
+  </si>
+  <si>
+    <t>When number of adults invalid and number of children invalid</t>
+  </si>
+  <si>
+    <t>When number of adults invalid and number of children valid</t>
+  </si>
+  <si>
+    <t>9.3.3.3.5.1</t>
+  </si>
+  <si>
+    <t>When RD remove all and rooms=0</t>
+  </si>
+  <si>
+    <t>When RD remove all and rooms=1</t>
+  </si>
+  <si>
+    <t>When RD remove all and rooms=2</t>
+  </si>
+  <si>
+    <t>9.3.3.3.5.2</t>
+  </si>
+  <si>
+    <t>9.3.3.3.5.3</t>
+  </si>
+  <si>
+    <t>9.3.3.3.5.4</t>
+  </si>
+  <si>
+    <t>9.3.3.3.5.5</t>
+  </si>
+  <si>
+    <t>9.3.3.3.5.6</t>
+  </si>
+  <si>
+    <t>When RD remove single and rooms=0</t>
+  </si>
+  <si>
+    <t>When RD remove single and rooms=1</t>
+  </si>
+  <si>
+    <t>When RD remove single and rooms=2 (one room left)</t>
+  </si>
+  <si>
+    <t>9.3.3.3.6.1</t>
+  </si>
+  <si>
+    <t>9.3.3.3.6.2</t>
+  </si>
+  <si>
+    <t>RD edits guest name on an assign room</t>
+  </si>
+  <si>
+    <t>RD edits guest name on an unassign room</t>
+  </si>
+  <si>
+    <t>rd reassign room when zero room assign</t>
+  </si>
+  <si>
+    <t>9.3.3.3.7.1</t>
+  </si>
+  <si>
+    <t>9.3.3.3.7.2</t>
+  </si>
+  <si>
+    <t>rd reassign room when x room assign</t>
+  </si>
+  <si>
+    <t>When RD remove all and venue=0</t>
+  </si>
+  <si>
+    <t>When RD remove all and venue=1</t>
+  </si>
+  <si>
+    <t>When RD remove all and venue=2</t>
+  </si>
+  <si>
+    <t>When RD remove single and venue=0</t>
+  </si>
+  <si>
+    <t>When RD remove single and venue=1</t>
+  </si>
+  <si>
+    <t>When RD remove single and venue=2 (one venue left)</t>
+  </si>
+  <si>
+    <t>9.3.3.4.1.1</t>
+  </si>
+  <si>
+    <t>9.3.3.4.1.2</t>
+  </si>
+  <si>
+    <t>9.3.3.4.1.3</t>
+  </si>
+  <si>
+    <t>9.3.3.4.1.4</t>
+  </si>
+  <si>
+    <t>9.3.3.4.1.5</t>
+  </si>
+  <si>
+    <t>9.3.3.4.1.6</t>
+  </si>
+  <si>
+    <t>9.3.3.4.2.1</t>
+  </si>
+  <si>
+    <t>RD edits venue when 0 venues assign</t>
+  </si>
+  <si>
+    <t>RD edits venue when x venues assign</t>
+  </si>
+  <si>
+    <t>9.3.3.4.2.2</t>
+  </si>
+  <si>
+    <t>ימים</t>
+  </si>
+  <si>
+    <t>שעה</t>
+  </si>
+  <si>
+    <t>תוצאה צפוייה</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.1</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.2</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.3</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.4</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.5</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.6</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.7</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.8</t>
+  </si>
+  <si>
+    <t>9.3.3.4.3.9</t>
+  </si>
+  <si>
+    <t>קבוצות שקילות</t>
+  </si>
+  <si>
+    <t>When date is 29.8.19 and hh 07:00</t>
+  </si>
+  <si>
+    <t>When date is 29.8.19 and hh 09:00</t>
+  </si>
+  <si>
+    <t>When date is 29.8.19 and hh 21:00</t>
+  </si>
+  <si>
+    <t>When date is 3.9.19 and hh 07:30</t>
+  </si>
+  <si>
+    <t>When date is 5.9.19 and hh 09:30</t>
+  </si>
+  <si>
+    <t>When date is 5.9.19 and hh 23:00</t>
+  </si>
+  <si>
+    <t>When date is 8.9.19 and hh 06:00</t>
+  </si>
+  <si>
+    <t>When date is 8.9.19 and hh 12:00</t>
+  </si>
+  <si>
+    <t>When date is 8.9.19 and hh 23:00</t>
+  </si>
+  <si>
+    <t>9.3.3.4.4.1</t>
+  </si>
+  <si>
+    <t>9.3.3.5.1.1</t>
+  </si>
+  <si>
+    <t>9.3.3.5.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When RD assign 0 extra </t>
+  </si>
+  <si>
+    <t>When Rd assign 1 and more extras</t>
+  </si>
+  <si>
+    <t>When RD remove all and extra=0</t>
+  </si>
+  <si>
+    <t>When RD remove all and extra=1</t>
+  </si>
+  <si>
+    <t>When RD remove all and extra=2</t>
+  </si>
+  <si>
+    <t>When RD remove single and extra=0</t>
+  </si>
+  <si>
+    <t>When RD remove single and extra=1</t>
+  </si>
+  <si>
+    <t>When RD remove single and extra=2 (one venue left)</t>
+  </si>
+  <si>
+    <t>9.3.3.5.2.1</t>
+  </si>
+  <si>
+    <t>9.3.3.5.2.2</t>
+  </si>
+  <si>
+    <t>9.3.3.5.2.3</t>
+  </si>
+  <si>
+    <t>9.3.3.5.2.4</t>
+  </si>
+  <si>
+    <t>9.3.3.5.2.5</t>
+  </si>
+  <si>
+    <t>9.3.3.5.2.6</t>
+  </si>
+  <si>
+    <t>RD edits venue when 0 extra assign</t>
+  </si>
+  <si>
+    <t>RD edits venue when x extra assign</t>
+  </si>
+  <si>
+    <t>9.3.3.5.3.1</t>
+  </si>
+  <si>
+    <t>9.3.3.5.3.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1414,8 +1752,74 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF70AD47"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1440,8 +1844,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1581,12 +2009,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,39 +2031,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1634,70 +2233,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1726,6 +2265,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1767,13 +2324,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="מחבר ישר 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="מחבר ישר 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1818,13 +2369,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="מחבר ישר 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="מחבר ישר 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1875,13 +2420,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="מחבר ישר 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="מחבר ישר 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1932,13 +2471,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="מחבר ישר 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="מחבר ישר 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1989,13 +2522,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="מחבר ישר 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="מחבר ישר 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2046,13 +2573,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="מחבר ישר 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="מחבר ישר 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2103,13 +2624,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="מחבר ישר 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="מחבר ישר 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2160,13 +2675,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2177,9 +2686,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -2227,13 +2734,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2244,9 +2745,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -2294,13 +2793,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2377,13 +2870,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2456,13 +2943,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="מחבר חץ ישר 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="מחבר חץ ישר 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2516,13 +2997,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="מחבר חץ ישר 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="מחבר חץ ישר 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2576,13 +3051,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="מחבר חץ ישר 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="מחבר חץ ישר 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2636,13 +3105,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="TextBox 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2653,9 +3116,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -2703,13 +3164,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2720,9 +3175,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -2770,13 +3223,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2787,9 +3234,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -2837,13 +3282,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="TextBox 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="42" name="TextBox 41"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2854,9 +3293,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -2904,13 +3341,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="TextBox 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="43" name="TextBox 42"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2921,9 +3352,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -2971,13 +3400,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="TextBox 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="44" name="TextBox 43"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3050,13 +3473,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3067,9 +3484,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -3118,13 +3533,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="מחבר חץ ישר 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="48" name="מחבר חץ ישר 47"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3171,13 +3580,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="מחבר חץ ישר 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="51" name="מחבר חץ ישר 50"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3230,13 +3633,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="מחבר חץ ישר 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="55" name="מחבר חץ ישר 54"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3279,48 +3676,1446 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="מחבר ישר 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9979542525" y="1905000"/>
+          <a:ext cx="3705225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="מחבר ישר 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9983266798" y="1733550"/>
+          <a:ext cx="1" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="מחבר ישר 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9982352399" y="1733550"/>
+          <a:ext cx="1" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="מחבר ישר 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9980637899" y="1733550"/>
+          <a:ext cx="1" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>570590</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>10994</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="תמונה 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF1C467-AADD-4D84-9907-F871AA0E97BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="מחבר ישר 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9979542524" y="1724025"/>
+          <a:ext cx="1" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9978581410" y="731520"/>
-          <a:ext cx="7276190" cy="3485714"/>
+          <a:off x="9980218800" y="1304926"/>
+          <a:ext cx="714374" cy="485774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>DATE 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t> (1.9.19)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982009500" y="1276351"/>
+          <a:ext cx="647700" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>DATE 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>(5.9.19)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9978818625" y="1771651"/>
+          <a:ext cx="666750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>ציר ימים</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="מחבר חץ ישר 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9979456800" y="3486151"/>
+          <a:ext cx="3867150" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="88900">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="מחבר ישר 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9979533000" y="2790825"/>
+          <a:ext cx="3705225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="מחבר ישר 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9982342874" y="2619375"/>
+          <a:ext cx="1" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="מחבר ישר 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9980628374" y="2619375"/>
+          <a:ext cx="1" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="מחבר ישר 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9979532999" y="2609850"/>
+          <a:ext cx="1" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextBox 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9978809100" y="2657476"/>
+          <a:ext cx="666750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>ציר שעה</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171452</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171453</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="מחבר ישר 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9983247747" y="2581275"/>
+          <a:ext cx="1" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="97000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9978771000" y="3362326"/>
+          <a:ext cx="666750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>כיוון</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="TextBox 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9980314051" y="2143125"/>
+          <a:ext cx="619124" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>hh1</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>(8:00)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982019025" y="2162175"/>
+          <a:ext cx="628650" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>hh2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>(20:00)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9979428225" y="1657350"/>
+          <a:ext cx="771526" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="TextBox 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9980809349" y="1657350"/>
+          <a:ext cx="771526" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571502</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="TextBox 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982238098" y="1657350"/>
+          <a:ext cx="771526" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="TextBox 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9979437749" y="2533650"/>
+          <a:ext cx="771526" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="TextBox 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982199999" y="2524125"/>
+          <a:ext cx="771526" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="TextBox 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9980809349" y="2514600"/>
+          <a:ext cx="771526" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9978913875" y="914400"/>
+          <a:ext cx="4629150" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1"/>
+            <a:t>כולל</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1" baseline="0"/>
+            <a:t> את כל סוגי </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t>המקומות </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1" baseline="0"/>
+            <a:t>הניתנים להזמנה במלון (מסעדה, ספא, חדר כנסים...)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3588,640 +5383,1401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:L79"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="F7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69:G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="41.44140625" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="55.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="4:12" ht="15.75">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="17" t="s">
+    <row r="5" spans="4:12" ht="15" customHeight="1">
+      <c r="D5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="19"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="6" t="s">
+    <row r="6" spans="4:12">
+      <c r="D6" s="40"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="19"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="6" t="s">
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="4:12">
+      <c r="D7" s="40"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="19"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="6" t="s">
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="D8" s="40"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="19"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="6" t="s">
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="4:12">
+      <c r="D9" s="40"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="19"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="6" t="s">
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="4:12">
+      <c r="D10" s="40"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="19"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="6" t="s">
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="D11" s="40"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="19"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="17" t="s">
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="D12" s="40"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="18"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="17" t="s">
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="4:12" ht="1.5" customHeight="1">
+      <c r="D13" s="41"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="D14" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="19"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="19"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="6" t="s">
+    <row r="15" spans="4:12" ht="3.75" customHeight="1">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="4:12">
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="19"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="6" t="s">
+    <row r="17" spans="4:12">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="19"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="6" t="s">
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="19"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="6" t="s">
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="4:12" ht="20.25" customHeight="1">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="19"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="17" t="s">
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="4:12" ht="7.5" customHeight="1">
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="4:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="19"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="4:12" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="19"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="28"/>
-    </row>
-    <row r="23" spans="4:12" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="19"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="5" t="s">
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="4:12" ht="8.25" customHeight="1">
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="4:12" ht="6.75" hidden="1" customHeight="1">
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="4:12" ht="19.5" customHeight="1">
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="4:12" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="19"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="5" t="s">
+      <c r="I23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" ht="19.5" customHeight="1">
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="4:12" ht="19.5" customHeight="1">
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="50"/>
+    </row>
+    <row r="26" spans="4:12" ht="31.5" customHeight="1">
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="51"/>
+    </row>
+    <row r="27" spans="4:12" ht="77.25" customHeight="1">
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H27" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="4:12" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="19"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="5" t="s">
+      <c r="I27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="22.5" customHeight="1">
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G28" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H28" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="4:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="19"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="5" t="s">
+      <c r="I28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" ht="22.5" customHeight="1">
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="4:12" ht="22.5" customHeight="1">
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="4:12" ht="42.75" customHeight="1">
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="4:12" ht="23.25" customHeight="1">
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G32" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H32" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="4:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="19"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="5" t="s">
+      <c r="I32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" ht="24.75" customHeight="1">
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="38"/>
+    </row>
+    <row r="34" spans="4:12" ht="33.75" customHeight="1">
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="4:12" ht="33.75" customHeight="1">
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="38"/>
+    </row>
+    <row r="36" spans="4:12" ht="33.75" customHeight="1">
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="38"/>
+    </row>
+    <row r="37" spans="4:12" ht="33.75" customHeight="1">
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="4:12" ht="24" customHeight="1">
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G38" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H38" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="4:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="18"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="8" t="s">
+      <c r="I38" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" ht="54.75" customHeight="1">
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="37"/>
+    </row>
+    <row r="40" spans="4:12" ht="29.25" customHeight="1">
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G40" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H40" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="4:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="D29" s="38" t="s">
+      <c r="I40" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" ht="29.25" customHeight="1">
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="37"/>
+    </row>
+    <row r="42" spans="4:12" ht="27" customHeight="1">
+      <c r="D42" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E42" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F42" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G42" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H42" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="4:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="5" t="s">
+      <c r="I42" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" ht="27" customHeight="1">
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="38"/>
+    </row>
+    <row r="44" spans="4:12" ht="27" customHeight="1">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J44" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="38"/>
+    </row>
+    <row r="45" spans="4:12" ht="27" customHeight="1">
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="38"/>
+    </row>
+    <row r="46" spans="4:12" ht="27" customHeight="1">
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J46" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="38"/>
+    </row>
+    <row r="47" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="37"/>
+    </row>
+    <row r="48" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G48" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H48" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="4:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="5" t="s">
+      <c r="I48" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="4:12" ht="45" customHeight="1">
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J49" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="43"/>
+    </row>
+    <row r="50" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G50" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H50" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="4:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="8" t="s">
+      <c r="I50" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="45"/>
+    </row>
+    <row r="56" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="45"/>
+    </row>
+    <row r="57" spans="4:12" ht="32.25" customHeight="1">
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="45"/>
+    </row>
+    <row r="58" spans="4:12" ht="50.25" customHeight="1">
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="46"/>
+    </row>
+    <row r="59" spans="4:12" ht="27.75" customHeight="1">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G59" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H59" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="4:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D33" s="17" t="s">
+      <c r="I59" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="J59" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" ht="51" customHeight="1">
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="87"/>
+    </row>
+    <row r="61" spans="4:12" ht="51" customHeight="1">
+      <c r="D61" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E61" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F61" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G61" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H61" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="4:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="5" t="s">
+      <c r="I61" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" ht="41.25" customHeight="1">
+      <c r="D62" s="62"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="43"/>
+    </row>
+    <row r="63" spans="4:12" ht="41.25" customHeight="1">
+      <c r="D63" s="62"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G63" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H63" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="4:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="5" t="s">
+      <c r="I63" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J63" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="K63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" ht="41.25" customHeight="1">
+      <c r="D64" s="62"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="J64" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="38"/>
+    </row>
+    <row r="65" spans="2:12" ht="41.25" customHeight="1">
+      <c r="D65" s="62"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J65" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="38"/>
+    </row>
+    <row r="66" spans="2:12" ht="41.25" customHeight="1">
+      <c r="D66" s="62"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="J66" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="38"/>
+    </row>
+    <row r="67" spans="2:12" ht="41.25" customHeight="1">
+      <c r="D67" s="62"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J67" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="38"/>
+    </row>
+    <row r="68" spans="2:12" ht="60.75" customHeight="1">
+      <c r="D68" s="62"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J68" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" s="37"/>
+    </row>
+    <row r="69" spans="2:12" ht="60.75" customHeight="1">
+      <c r="D69" s="62"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G69" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H69" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="I69" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="52.5" customHeight="1">
+      <c r="B70" s="15"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="89"/>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D14:D28"/>
-    <mergeCell ref="E14:E28"/>
-    <mergeCell ref="D5:D13"/>
-    <mergeCell ref="E5:E13"/>
-    <mergeCell ref="F5:F13"/>
-    <mergeCell ref="G5:G13"/>
-    <mergeCell ref="H5:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
+  <mergeCells count="77">
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L63:L68"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L5:L13"/>
     <mergeCell ref="F14:F22"/>
@@ -4235,10 +6791,69 @@
     <mergeCell ref="J20:J22"/>
     <mergeCell ref="K20:K22"/>
     <mergeCell ref="L16:L22"/>
+    <mergeCell ref="F5:F13"/>
+    <mergeCell ref="G5:G13"/>
+    <mergeCell ref="H5:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D14:D41"/>
+    <mergeCell ref="E14:E41"/>
+    <mergeCell ref="E61:E70"/>
+    <mergeCell ref="D61:D70"/>
+    <mergeCell ref="D5:D13"/>
+    <mergeCell ref="E5:E13"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="E42:E60"/>
+    <mergeCell ref="D42:D60"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L58"/>
+    <mergeCell ref="F50:F58"/>
+    <mergeCell ref="G50:G58"/>
+    <mergeCell ref="H50:H58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="F42:F47"/>
+    <mergeCell ref="G42:G47"/>
+    <mergeCell ref="H42:H47"/>
+    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L5:L13" location="'טבלת החלטות 9.3.3.2.1'!A1" display="טבלת החלטות" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L16:L22" location="'ערכי קצה וקבוצת שקילות '!A1" display="'ערכי קצה וקבוצת שקילות '!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L5:L13" location="'טבלת החלטות 9.3.3.2.1'!A1" display="טבלת החלטות"/>
+    <hyperlink ref="L16:L22" location="'ערכי קצה וקבוצת שקילות '!A1" display="'ערכי קצה וקבוצת שקילות '!A1"/>
+    <hyperlink ref="L28:L31" location="'טבלת החלטות 9.3.3.3.4   '!A1" display="טבלת החלטות"/>
+    <hyperlink ref="L50:L58" location="'קבוצת שקילות 9.3.3.4.3 '!A1" display="קבוצות שקילות"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4246,249 +6861,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:R19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-    </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
-    </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-    </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
-    </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
-    </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
-    </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="44"/>
-    </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
-    </row>
-    <row r="12" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
-    </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
-    </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-    </row>
-    <row r="19" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+    <row r="3" spans="4:18" ht="15.75" thickBot="1"/>
+    <row r="4" spans="4:18">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+    </row>
+    <row r="5" spans="4:18">
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+    </row>
+    <row r="6" spans="4:18">
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="4:18">
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+    </row>
+    <row r="8" spans="4:18">
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" spans="4:18">
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+    </row>
+    <row r="10" spans="4:18">
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+    </row>
+    <row r="11" spans="4:18">
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+    </row>
+    <row r="12" spans="4:18">
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="4:18">
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
+    </row>
+    <row r="14" spans="4:18">
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
+    </row>
+    <row r="15" spans="4:18">
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
+    </row>
+    <row r="16" spans="4:18">
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="4:13">
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
+    </row>
+    <row r="18" spans="4:13">
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D4:M19"/>
-    <mergeCell ref="O4:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4497,29 +7113,390 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A479B379-8C87-42B5-8A5A-40F9B28EF4CF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:Q27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:17" ht="15.75" thickBot="1"/>
+    <row r="5" spans="6:17">
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+    </row>
+    <row r="6" spans="6:17">
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="80"/>
+    </row>
+    <row r="7" spans="6:17">
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="80"/>
+    </row>
+    <row r="8" spans="6:17">
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="80"/>
+    </row>
+    <row r="9" spans="6:17">
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
+    </row>
+    <row r="10" spans="6:17">
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="80"/>
+    </row>
+    <row r="11" spans="6:17">
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80"/>
+    </row>
+    <row r="12" spans="6:17">
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="80"/>
+    </row>
+    <row r="13" spans="6:17">
+      <c r="F13" s="78"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="80"/>
+    </row>
+    <row r="14" spans="6:17">
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="80"/>
+    </row>
+    <row r="15" spans="6:17">
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
+    </row>
+    <row r="16" spans="6:17">
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="80"/>
+    </row>
+    <row r="17" spans="6:17">
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="80"/>
+    </row>
+    <row r="18" spans="6:17">
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80"/>
+    </row>
+    <row r="19" spans="6:17">
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="80"/>
+    </row>
+    <row r="20" spans="6:17" ht="15.75" thickBot="1">
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="83"/>
+    </row>
+    <row r="24" spans="6:17">
+      <c r="F24" s="30"/>
+      <c r="G24" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17">
+      <c r="F25" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17">
+      <c r="F26" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17">
+      <c r="F27" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:Q20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G6:Q17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:17">
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4532,7 +7509,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:17">
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -4545,7 +7522,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:17">
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -4558,7 +7535,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:17">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4571,24 +7548,24 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:17">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-    </row>
-    <row r="11" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+    </row>
+    <row r="11" spans="7:17">
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -4617,10 +7594,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:17">
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -4648,10 +7625,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:17">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -4679,10 +7656,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:17">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="19" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -4710,38 +7687,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:17">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:17">
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -4754,7 +7731,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:17">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -4773,4 +7750,128 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:J12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:10">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="5:10">
+      <c r="E5" s="23"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10">
+      <c r="E6" s="23"/>
+      <c r="F6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10">
+      <c r="E7" s="23"/>
+      <c r="F7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10">
+      <c r="E8" s="23"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>